--- a/data/lat_long_corrected.xlsx
+++ b/data/lat_long_corrected.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonnapander/Desktop/Coursera_Capstone/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonnapander/Desktop/Capstone/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1748847A-8E9A-9F4E-A9C6-11F1137531CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E18855-3A7E-C047-AC84-1AE8AD77B4E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="73580" yWindow="1800" windowWidth="30120" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="200">
   <si>
     <t>neighborhood</t>
   </si>
@@ -562,123 +561,6 @@
   </si>
   <si>
     <t>Delete</t>
-  </si>
-  <si>
-    <t>data_df</t>
-  </si>
-  <si>
-    <t>['Allandale',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'Anderson Mill',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'Barton Hills',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'Bouldin Creek',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'Brentwood',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'Bryker Woods',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'Canyon Creek',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'Circle C Ranch',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'Clarksville',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'Copperfield',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'Crestview',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'Dawson',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'Dove Springs',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'Downtown Austin',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'East Cesar Chavez',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'Easton Park',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'Galindo',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'Granada Hills',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'Hancock',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'North Shoal Creek',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'Oak Hill',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'Old West Austin',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'Onion Creek',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'Rosedale',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'Scenic Brook',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'South Congress',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'South Lamar',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'South River City',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'Tarrytown',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'Travis Heights',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'West Campus',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'Westgate',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'Windsor Hills',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'Windsor Park',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'Wooten',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'Zilker']</t>
-  </si>
-  <si>
-    <t>df_grouped</t>
-  </si>
-  <si>
-    <t>['Anderson Mill',</t>
   </si>
   <si>
     <t>Problem with Bremond Block Historic District data or cannot Geocode.</t>
@@ -754,7 +636,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -776,18 +658,6 @@
       <name val="Var(--jp-code-font-family)"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Var(--jp-code-font-family)"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -796,18 +666,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -847,9 +711,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -858,10 +722,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1203,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1397,7 +1258,7 @@
         <v>160</v>
       </c>
       <c r="H9">
-        <v>-30.434032999999999</v>
+        <v>30.434032999999999</v>
       </c>
       <c r="I9">
         <v>97.820707999999996</v>
@@ -1446,7 +1307,7 @@
         <v>162</v>
       </c>
       <c r="H11">
-        <v>-30.190339000000002</v>
+        <v>30.190339000000002</v>
       </c>
       <c r="I11">
         <v>97.889049999999997</v>
@@ -1675,7 +1536,7 @@
         <v>164</v>
       </c>
       <c r="H22">
-        <v>-30.155246999999999</v>
+        <v>30.155246999999999</v>
       </c>
       <c r="I22">
         <v>97.718763999999993</v>
@@ -1787,7 +1648,7 @@
         <v>167</v>
       </c>
       <c r="H27">
-        <v>-30.462108000000001</v>
+        <v>30.462108000000001</v>
       </c>
       <c r="I27">
         <v>97.737042000000002</v>
@@ -1876,7 +1737,7 @@
         <v>169</v>
       </c>
       <c r="H31">
-        <v>-30.231431000000001</v>
+        <v>30.231431000000001</v>
       </c>
       <c r="I31">
         <v>97.865313999999998</v>
@@ -1925,7 +1786,7 @@
         <v>171</v>
       </c>
       <c r="H33">
-        <v>-30.140056000000001</v>
+        <v>30.140056000000001</v>
       </c>
       <c r="I33">
         <v>97.781802999999996</v>
@@ -2034,7 +1895,7 @@
         <v>173</v>
       </c>
       <c r="H38">
-        <v>-30.266224999999999</v>
+        <v>30.266224999999999</v>
       </c>
       <c r="I38">
         <v>97.738044000000002</v>
@@ -2123,7 +1984,7 @@
         <v>175</v>
       </c>
       <c r="H42">
-        <v>-30.272428000000001</v>
+        <v>30.272428000000001</v>
       </c>
       <c r="I42">
         <v>97.756530999999995</v>
@@ -2331,15 +2192,15 @@
     </row>
     <row r="54" spans="1:11">
       <c r="K54" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="B55" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>224</v>
+        <v>177</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="H55">
         <v>30.270555999999999</v>
@@ -2350,10 +2211,10 @@
     </row>
     <row r="56" spans="1:11">
       <c r="B56" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>225</v>
+        <v>178</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="H56">
         <v>30.305833</v>
@@ -2362,7 +2223,7 @@
         <v>-97.73</v>
       </c>
       <c r="J56" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="K56" t="s">
         <v>158</v>
@@ -2370,10 +2231,10 @@
     </row>
     <row r="57" spans="1:11">
       <c r="B57" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>226</v>
+        <v>179</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="H57">
         <v>30.168056</v>
@@ -2384,10 +2245,10 @@
     </row>
     <row r="58" spans="1:11">
       <c r="B58" s="3" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="F58" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="H58">
         <v>30.289444</v>
@@ -2396,7 +2257,7 @@
         <v>-97.702635999999998</v>
       </c>
       <c r="J58" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="K58" t="s">
         <v>158</v>
@@ -2404,13 +2265,13 @@
     </row>
     <row r="59" spans="1:11">
       <c r="B59" s="3" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="F59" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="G59" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="H59">
         <v>30.391152999999999</v>
@@ -2419,7 +2280,7 @@
         <v>-97.721833000000004</v>
       </c>
       <c r="J59" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="K59" t="s">
         <v>158</v>
@@ -2427,10 +2288,10 @@
     </row>
     <row r="60" spans="1:11">
       <c r="B60" s="3" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="F60" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="H60">
         <v>30.299721999999999</v>
@@ -2439,18 +2300,18 @@
         <v>-97.730277999999998</v>
       </c>
       <c r="J60" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="B61" s="3" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="F61" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="G61" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="H61">
         <v>30.338958000000002</v>
@@ -2461,10 +2322,10 @@
     </row>
     <row r="62" spans="1:11">
       <c r="B62" s="3" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="F62" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2475,314 +2336,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF5DF3A-AE99-634B-84AD-B2F98A9B6579}">
-  <dimension ref="B2:D38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
-  <cols>
-    <col min="2" max="2" width="22.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="4"/>
-    <col min="4" max="4" width="19.1640625" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4">
-      <c r="B2" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>